--- a/Assets/StreamingAssets/StoryScript13.xlsx
+++ b/Assets/StreamingAssets/StoryScript13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C5915-5857-7542-A77D-FBBF54C6DE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371E531-09B2-6845-8FB5-B21868E29457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dee-Thinking2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Suspicious</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>He-Sad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Investigate2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,15 +138,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Start Investigation!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disappear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let’s begin the investigation!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The scene remains exactly as it was—unchanged from yesterday.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(But under the bright daylight, we’re bound to uncover new clues.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(We’ve returned once again to the place where the Lord’s body was discovered last night.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,9 +231,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -629,29 +636,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" spans="1:16" ht="51">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -661,165 +656,129 @@
         <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="34">
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="17">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
+    <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>24</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="17">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="17">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
+    <row r="9" spans="1:16" ht="17">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
